--- a/your_dataset.xlsx
+++ b/your_dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\porkcube\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\porkai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Ammonia</t>
   </si>
@@ -40,24 +40,22 @@
   </si>
   <si>
     <t>Not Fresh</t>
+  </si>
+  <si>
+    <t>Temperature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -76,30 +74,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,32 +382,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -440,11 +431,14 @@
       <c r="D2">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.15</v>
       </c>
@@ -457,11 +451,14 @@
       <c r="D3">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -474,11 +471,14 @@
       <c r="D4">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -491,11 +491,14 @@
       <c r="D5">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.3</v>
       </c>
@@ -508,11 +511,15 @@
       <c r="D6">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>